--- a/Lab3-var16-120/stats.xlsx
+++ b/Lab3-var16-120/stats.xlsx
@@ -532,25 +532,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4482</c:v>
+                  <c:v>14979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10047</c:v>
+                  <c:v>31730</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16028</c:v>
+                  <c:v>48265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62432</c:v>
+                  <c:v>164724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173537</c:v>
+                  <c:v>415010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>374081</c:v>
+                  <c:v>8146312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>744079</c:v>
+                  <c:v>16473783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,25 +617,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22519</c:v>
+                  <c:v>500499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52638</c:v>
+                  <c:v>2000999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82094</c:v>
+                  <c:v>4501499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>337232</c:v>
+                  <c:v>7055326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>942235</c:v>
+                  <c:v>11864788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2083404</c:v>
+                  <c:v>1250025000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3966742</c:v>
+                  <c:v>5000050000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,25 +702,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4470</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16042</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173475</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>373606</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>744517</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,25 +787,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22489</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52058</c:v>
+                  <c:v>1999000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82124</c:v>
+                  <c:v>4498500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>335633</c:v>
+                  <c:v>49995000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>940736</c:v>
+                  <c:v>312487500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2083404</c:v>
+                  <c:v>1249975000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3966742</c:v>
+                  <c:v>4999950000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,25 +872,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4464</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10026</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16023</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62393</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173450</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>372480</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>743608</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,25 +957,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22659</c:v>
+                  <c:v>500499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52478</c:v>
+                  <c:v>2000999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82184</c:v>
+                  <c:v>4501499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>337332</c:v>
+                  <c:v>50004999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>944235</c:v>
+                  <c:v>312512499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2158402</c:v>
+                  <c:v>1250025000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4166740</c:v>
+                  <c:v>5000050000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,25 +1337,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>248865</c:v>
+                  <c:v>247346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000415</c:v>
+                  <c:v>989256</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2248233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24975383</c:v>
+                  <c:v>24769968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156024735</c:v>
+                  <c:v>25775171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>625046506</c:v>
+                  <c:v>618830689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2474803176</c:v>
+                  <c:v>2482726624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,25 +1422,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>247866</c:v>
+                  <c:v>248341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>998416</c:v>
+                  <c:v>991251</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2245234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24965384</c:v>
+                  <c:v>24779963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155999736</c:v>
+                  <c:v>25800166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>624996507</c:v>
+                  <c:v>620681656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2482726624</c:v>
+                  <c:v>2474803176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,25 +1507,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>248865</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1003541</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2258373</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24963153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156203703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>623547338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1392412432</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,25 +1592,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>247866</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1001542</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2255374</c:v>
+                  <c:v>2999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24953154</c:v>
+                  <c:v>9999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156178704</c:v>
+                  <c:v>24999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>623497339</c:v>
+                  <c:v>49999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1392012436</c:v>
+                  <c:v>99999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,22 +1677,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>248865</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>999936</c:v>
+                  <c:v>1999000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2244233</c:v>
+                  <c:v>4498500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24861629</c:v>
+                  <c:v>49995000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156470468</c:v>
+                  <c:v>312487500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>626503652</c:v>
+                  <c:v>1249975000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4999950000</c:v>
@@ -1762,22 +1762,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>247866</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>997937</c:v>
+                  <c:v>1999000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2241234</c:v>
+                  <c:v>4498500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24851630</c:v>
+                  <c:v>49995000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156445469</c:v>
+                  <c:v>312487500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>626453653</c:v>
+                  <c:v>1249975000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4999950000</c:v>
@@ -2142,25 +2142,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6129</c:v>
+                  <c:v>4812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13719</c:v>
+                  <c:v>10131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21865</c:v>
+                  <c:v>15217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86470</c:v>
+                  <c:v>551476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240443</c:v>
+                  <c:v>3255044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>526123</c:v>
+                  <c:v>5765097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1209605</c:v>
+                  <c:v>7569866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,25 +2227,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10945</c:v>
+                  <c:v>12982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24774</c:v>
+                  <c:v>36352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39603</c:v>
+                  <c:v>69634</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156720</c:v>
+                  <c:v>583686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>435012</c:v>
+                  <c:v>3334865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>949885</c:v>
+                  <c:v>5920603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2047092</c:v>
+                  <c:v>7889730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2312,25 +2312,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6187</c:v>
+                  <c:v>500499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13549</c:v>
+                  <c:v>2000999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21873</c:v>
+                  <c:v>4501499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84300</c:v>
+                  <c:v>50004999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237294</c:v>
+                  <c:v>312512499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>535136</c:v>
+                  <c:v>500024999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1193735</c:v>
+                  <c:v>905082703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,25 +2397,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10977</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24573</c:v>
+                  <c:v>1999000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39664</c:v>
+                  <c:v>4498500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155363</c:v>
+                  <c:v>49995000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>435550</c:v>
+                  <c:v>312487500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>985464</c:v>
+                  <c:v>509975000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2053261</c:v>
+                  <c:v>904982704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,25 +2482,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6250</c:v>
+                  <c:v>250499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13740</c:v>
+                  <c:v>1000999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21759</c:v>
+                  <c:v>2251499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85975</c:v>
+                  <c:v>25004999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239093</c:v>
+                  <c:v>156262499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>508730</c:v>
+                  <c:v>625024999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1114604</c:v>
+                  <c:v>2500049999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,25 +2567,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11019</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24693</c:v>
+                  <c:v>1999000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39559</c:v>
+                  <c:v>4498500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156554</c:v>
+                  <c:v>49995000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>436998</c:v>
+                  <c:v>312487500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>945935</c:v>
+                  <c:v>549975000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1998500</c:v>
+                  <c:v>704982704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,7 +4941,12 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5072,67 +5077,67 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>248865</v>
+        <v>247346</v>
       </c>
       <c r="C4" s="1">
-        <v>1000415</v>
+        <v>989256</v>
       </c>
       <c r="D4" s="1">
         <v>2248233</v>
       </c>
       <c r="E4" s="1">
-        <v>24975383</v>
+        <v>24769968</v>
       </c>
       <c r="F4" s="1">
-        <v>156024735</v>
+        <v>25775171</v>
       </c>
       <c r="G4" s="1">
-        <v>625046506</v>
+        <v>618830689</v>
       </c>
       <c r="H4" s="1">
-        <v>2474803176</v>
+        <v>2482726624</v>
       </c>
       <c r="I4" s="10">
-        <v>4482</v>
+        <v>14979</v>
       </c>
       <c r="J4" s="1">
-        <v>10047</v>
+        <v>31730</v>
       </c>
       <c r="K4" s="1">
-        <v>16028</v>
+        <v>48265</v>
       </c>
       <c r="L4" s="1">
-        <v>62432</v>
+        <v>164724</v>
       </c>
       <c r="M4" s="1">
-        <v>173537</v>
+        <v>415010</v>
       </c>
       <c r="N4" s="1">
-        <v>374081</v>
+        <v>8146312</v>
       </c>
       <c r="O4" s="1">
-        <v>744079</v>
+        <v>16473783</v>
       </c>
       <c r="P4" s="10">
-        <v>6129</v>
+        <v>4812</v>
       </c>
       <c r="Q4" s="1">
-        <v>13719</v>
+        <v>10131</v>
       </c>
       <c r="R4" s="1">
-        <v>21865</v>
+        <v>15217</v>
       </c>
       <c r="S4" s="1">
-        <v>86470</v>
+        <v>551476</v>
       </c>
       <c r="T4" s="1">
-        <v>240443</v>
+        <v>3255044</v>
       </c>
       <c r="U4" s="1">
-        <v>526123</v>
+        <v>5765097</v>
       </c>
       <c r="V4" s="1">
-        <v>1209605</v>
+        <v>7569866</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5140,67 +5145,67 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>247866</v>
+        <v>248341</v>
       </c>
       <c r="C5" s="1">
-        <v>998416</v>
+        <v>991251</v>
       </c>
       <c r="D5" s="1">
         <v>2245234</v>
       </c>
       <c r="E5" s="1">
-        <v>24965384</v>
+        <v>24779963</v>
       </c>
       <c r="F5" s="1">
-        <v>155999736</v>
+        <v>25800166</v>
       </c>
       <c r="G5" s="1">
-        <v>624996507</v>
+        <v>620681656</v>
       </c>
       <c r="H5" s="1">
-        <v>2482726624</v>
+        <v>2474803176</v>
       </c>
       <c r="I5" s="10">
-        <v>22519</v>
+        <v>500499</v>
       </c>
       <c r="J5" s="1">
-        <v>52638</v>
+        <v>2000999</v>
       </c>
       <c r="K5" s="1">
-        <v>82094</v>
+        <v>4501499</v>
       </c>
       <c r="L5" s="1">
-        <v>337232</v>
+        <v>7055326</v>
       </c>
       <c r="M5" s="1">
-        <v>942235</v>
+        <v>11864788</v>
       </c>
       <c r="N5" s="1">
-        <v>2083404</v>
+        <v>1250025000</v>
       </c>
       <c r="O5" s="1">
-        <v>3966742</v>
+        <v>5000050000</v>
       </c>
       <c r="P5" s="10">
-        <v>10945</v>
+        <v>12982</v>
       </c>
       <c r="Q5" s="1">
-        <v>24774</v>
+        <v>36352</v>
       </c>
       <c r="R5" s="1">
-        <v>39603</v>
+        <v>69634</v>
       </c>
       <c r="S5" s="1">
-        <v>156720</v>
+        <v>583686</v>
       </c>
       <c r="T5" s="1">
-        <v>435012</v>
+        <v>3334865</v>
       </c>
       <c r="U5" s="1">
-        <v>949885</v>
+        <v>5920603</v>
       </c>
       <c r="V5" s="1">
-        <v>2047092</v>
+        <v>7889730</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -5234,68 +5239,67 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>248865</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1003541</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>2258373</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>24963153</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>156203703</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>623547338</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>348103108*4</f>
-        <v>1392412432</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10">
-        <v>4470</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10037</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>16042</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>62439</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>173475</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>373606</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>744517</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10">
-        <v>6187</v>
+        <v>500499</v>
       </c>
       <c r="Q7" s="1">
-        <v>13549</v>
+        <v>2000999</v>
       </c>
       <c r="R7" s="1">
-        <v>21873</v>
+        <v>4501499</v>
       </c>
       <c r="S7" s="1">
-        <v>84300</v>
+        <v>50004999</v>
       </c>
       <c r="T7" s="1">
-        <v>237294</v>
+        <v>312512499</v>
       </c>
       <c r="U7" s="1">
-        <v>535136</v>
+        <v>500024999</v>
       </c>
       <c r="V7" s="1">
-        <v>1193735</v>
+        <v>905082703</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -5303,68 +5307,67 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>247866</v>
+        <v>999</v>
       </c>
       <c r="C8" s="1">
-        <v>1001542</v>
+        <v>1999</v>
       </c>
       <c r="D8" s="1">
-        <v>2255374</v>
+        <v>2999</v>
       </c>
       <c r="E8" s="1">
-        <v>24953154</v>
+        <v>9999</v>
       </c>
       <c r="F8" s="1">
-        <v>156178704</v>
+        <v>24999</v>
       </c>
       <c r="G8" s="1">
-        <v>623497339</v>
+        <v>49999</v>
       </c>
       <c r="H8" s="1">
-        <f>348003109*4</f>
-        <v>1392012436</v>
+        <v>99999</v>
       </c>
       <c r="I8" s="10">
-        <v>22489</v>
+        <v>499500</v>
       </c>
       <c r="J8" s="1">
-        <v>52058</v>
+        <v>1999000</v>
       </c>
       <c r="K8" s="1">
-        <v>82124</v>
+        <v>4498500</v>
       </c>
       <c r="L8" s="1">
-        <v>335633</v>
+        <v>49995000</v>
       </c>
       <c r="M8" s="1">
-        <v>940736</v>
+        <v>312487500</v>
       </c>
       <c r="N8" s="1">
-        <v>2083404</v>
+        <v>1249975000</v>
       </c>
       <c r="O8" s="1">
-        <v>3966742</v>
+        <v>4999950000</v>
       </c>
       <c r="P8" s="10">
-        <v>10977</v>
+        <v>499500</v>
       </c>
       <c r="Q8" s="1">
-        <v>24573</v>
+        <v>1999000</v>
       </c>
       <c r="R8" s="1">
-        <v>39664</v>
+        <v>4498500</v>
       </c>
       <c r="S8" s="1">
-        <v>155363</v>
+        <v>49995000</v>
       </c>
       <c r="T8" s="1">
-        <v>435550</v>
+        <v>312487500</v>
       </c>
       <c r="U8" s="1">
-        <v>985464</v>
+        <v>509975000</v>
       </c>
       <c r="V8" s="1">
-        <v>2053261</v>
+        <v>904982704</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5398,67 +5401,67 @@
         <v>6</v>
       </c>
       <c r="B10" s="10">
-        <v>248865</v>
+        <v>499500</v>
       </c>
       <c r="C10" s="1">
-        <v>999936</v>
+        <v>1999000</v>
       </c>
       <c r="D10" s="1">
-        <v>2244233</v>
+        <v>4498500</v>
       </c>
       <c r="E10" s="1">
-        <v>24861629</v>
+        <v>49995000</v>
       </c>
       <c r="F10" s="1">
-        <v>156470468</v>
+        <v>312487500</v>
       </c>
       <c r="G10" s="1">
-        <v>626503652</v>
+        <v>1249975000</v>
       </c>
       <c r="H10" s="1">
         <v>4999950000</v>
       </c>
       <c r="I10" s="10">
-        <v>4464</v>
+        <v>500</v>
       </c>
       <c r="J10" s="1">
-        <v>10026</v>
+        <v>1000</v>
       </c>
       <c r="K10" s="1">
-        <v>16023</v>
+        <v>1500</v>
       </c>
       <c r="L10" s="1">
-        <v>62393</v>
+        <v>5000</v>
       </c>
       <c r="M10" s="1">
-        <v>173450</v>
+        <v>12500</v>
       </c>
       <c r="N10" s="1">
-        <v>372480</v>
+        <v>25000</v>
       </c>
       <c r="O10" s="1">
-        <v>743608</v>
+        <v>50000</v>
       </c>
       <c r="P10" s="10">
-        <v>6250</v>
+        <v>250499</v>
       </c>
       <c r="Q10" s="1">
-        <v>13740</v>
+        <v>1000999</v>
       </c>
       <c r="R10" s="1">
-        <v>21759</v>
+        <v>2251499</v>
       </c>
       <c r="S10" s="1">
-        <v>85975</v>
+        <v>25004999</v>
       </c>
       <c r="T10" s="1">
-        <v>239093</v>
+        <v>156262499</v>
       </c>
       <c r="U10" s="1">
-        <v>508730</v>
+        <v>625024999</v>
       </c>
       <c r="V10" s="1">
-        <v>1114604</v>
+        <v>2500049999</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5466,67 +5469,67 @@
         <v>5</v>
       </c>
       <c r="B11" s="13">
-        <v>247866</v>
+        <v>499500</v>
       </c>
       <c r="C11" s="14">
-        <v>997937</v>
+        <v>1999000</v>
       </c>
       <c r="D11" s="14">
-        <v>2241234</v>
+        <v>4498500</v>
       </c>
       <c r="E11" s="14">
-        <v>24851630</v>
+        <v>49995000</v>
       </c>
       <c r="F11" s="14">
-        <v>156445469</v>
+        <v>312487500</v>
       </c>
       <c r="G11" s="14">
-        <v>626453653</v>
+        <v>1249975000</v>
       </c>
       <c r="H11" s="14">
         <v>4999950000</v>
       </c>
       <c r="I11" s="13">
-        <v>22659</v>
+        <v>500499</v>
       </c>
       <c r="J11" s="14">
-        <v>52478</v>
+        <v>2000999</v>
       </c>
       <c r="K11" s="14">
-        <v>82184</v>
+        <v>4501499</v>
       </c>
       <c r="L11" s="14">
-        <v>337332</v>
+        <v>50004999</v>
       </c>
       <c r="M11" s="14">
-        <v>944235</v>
+        <v>312512499</v>
       </c>
       <c r="N11" s="14">
-        <v>2158402</v>
+        <v>1250025000</v>
       </c>
       <c r="O11" s="14">
-        <v>4166740</v>
+        <v>5000050000</v>
       </c>
       <c r="P11" s="13">
-        <v>11019</v>
+        <v>499500</v>
       </c>
       <c r="Q11" s="14">
-        <v>24693</v>
+        <v>1999000</v>
       </c>
       <c r="R11" s="14">
-        <v>39559</v>
+        <v>4498500</v>
       </c>
       <c r="S11" s="14">
-        <v>156554</v>
+        <v>49995000</v>
       </c>
       <c r="T11" s="14">
-        <v>436998</v>
+        <v>312487500</v>
       </c>
       <c r="U11" s="14">
-        <v>945935</v>
+        <v>549975000</v>
       </c>
       <c r="V11" s="14">
-        <v>1998500</v>
+        <v>704982704</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Lab3-var16-120/stats.xlsx
+++ b/Lab3-var16-120/stats.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645E9502-952E-4192-99A0-F1CAF49E53CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,8 +381,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,7 +400,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -441,7 +442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1127,7 +1127,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1159,7 +1158,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1167,6 +1165,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1204,7 +1203,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1246,7 +1245,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1932,7 +1930,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1964,7 +1961,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1972,6 +1968,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2009,7 +2006,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2051,7 +2048,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2737,7 +2733,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2769,7 +2764,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2777,6 +2771,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4565,7 +4560,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED12244-112D-4128-A6E4-18E945BDDD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4603,7 +4598,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED12244-112D-4128-A6E4-18E945BDDD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4641,7 +4636,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED12244-112D-4128-A6E4-18E945BDDD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4926,30 +4921,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4978,7 +4973,7 @@
       <c r="U1" s="19"/>
       <c r="V1" s="20"/>
     </row>
-    <row r="2" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -5046,7 +5041,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5072,7 +5067,7 @@
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
     </row>
-    <row r="4" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>7569866</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -5208,7 +5203,7 @@
         <v>7889730</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5234,7 +5229,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -5302,7 +5297,7 @@
         <v>905082703</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5370,7 +5365,7 @@
         <v>904982704</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -5396,7 +5391,7 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5459,7 @@
         <v>2500049999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -5532,7 +5527,7 @@
         <v>704982704</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
